--- a/src/test/resources/case/Intention.xlsx
+++ b/src/test/resources/case/Intention.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,7 +151,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/expected/addIntention.json</t>
+    <t>/expected/Intention.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,7 +532,7 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -581,17 +585,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
@@ -601,7 +605,7 @@
     <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -629,8 +633,11 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -659,7 +666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -688,7 +695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -729,7 +736,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/case/Intention.xlsx
+++ b/src/test/resources/case/Intention.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nchr/personresume/intention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置期望薪资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +152,10 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/personresume/intention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,10 +558,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -573,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -610,118 +610,118 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -755,26 +755,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
